--- a/Documentation/Sprint 3/ESD_-_Sprint_3_-_Task_Delivery_Form.xlsx
+++ b/Documentation/Sprint 3/ESD_-_Sprint_3_-_Task_Delivery_Form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conranpearce/Documents/UWE/Third Year/Computer Science/ESD/Assignment/Sprint 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helen\Documents\GitHub\ESD-Group-3-CW1\Documentation\Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BF698B-F5E9-E140-ADE4-1AE9CBF460F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA9AEBC-D5B4-450C-A1AC-13D34D081202}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{1F01EB23-A2B0-864F-A356-1295040365DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F01EB23-A2B0-864F-A356-1295040365DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,11 +378,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,21 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent2" xfId="1" builtinId="35"/>
@@ -441,13 +439,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>15735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>669925</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -789,122 +787,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A17AF97-3967-1A4B-8F57-61675CB7BADC}">
-  <dimension ref="B2:AG44"/>
+  <dimension ref="B2:AE44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+      <selection activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" customWidth="1"/>
-    <col min="10" max="30" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.6640625" customWidth="1"/>
-    <col min="32" max="32" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="6" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="30" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" customWidth="1"/>
+    <col min="32" max="32" width="5.75" customWidth="1"/>
+    <col min="33" max="33" width="5.625" customWidth="1"/>
     <col min="34" max="34" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:31" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="3"/>
       <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="18">
         <v>3</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="3"/>
       <c r="I5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="19">
         <v>43851</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="25" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
@@ -992,15 +989,9 @@
       <c r="AD8" s="10">
         <v>28</v>
       </c>
-      <c r="AE8" s="10">
-        <v>29</v>
-      </c>
-      <c r="AF8" s="10">
-        <v>30</v>
-      </c>
-      <c r="AG8" s="26"/>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AE8" s="16"/>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1046,11 +1037,9 @@
       </c>
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AE9" s="4"/>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1098,11 +1087,9 @@
       <c r="AD10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AE10" s="4"/>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1148,11 +1135,9 @@
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AE11" s="4"/>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
@@ -1208,11 +1193,9 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AE12" s="4"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
@@ -1254,11 +1237,9 @@
         <v>12</v>
       </c>
       <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AE13" s="4"/>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1255,7 @@
       <c r="F14" s="9">
         <v>100</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="14">
         <v>100</v>
       </c>
       <c r="H14" s="9">
@@ -1346,790 +1327,764 @@
       <c r="AD14" s="9">
         <v>100</v>
       </c>
-      <c r="AE14" s="9">
-        <v>100</v>
-      </c>
-      <c r="AF14" s="9">
-        <v>100</v>
-      </c>
-      <c r="AG14" s="12"/>
-    </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AE14" s="12"/>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="18"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="22"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="21"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="25"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="21"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="25"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>3</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="21"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="25"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>4</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>6</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>7</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>8</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>9</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>10</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>11</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>12</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>13</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>14</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>15</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>16</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>17</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>18</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>19</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>20</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>21</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>22</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>23</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>24</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>25</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>26</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>27</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>28</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="C23:U23"/>
-    <mergeCell ref="C24:U24"/>
-    <mergeCell ref="C25:U25"/>
-    <mergeCell ref="C26:U26"/>
-    <mergeCell ref="C27:U27"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="C40:U40"/>
-    <mergeCell ref="C41:U41"/>
-    <mergeCell ref="C42:U42"/>
-    <mergeCell ref="C43:U43"/>
-    <mergeCell ref="C44:U44"/>
-    <mergeCell ref="C34:U34"/>
-    <mergeCell ref="C35:U35"/>
-    <mergeCell ref="C36:U36"/>
-    <mergeCell ref="C37:U37"/>
-    <mergeCell ref="C38:U38"/>
+  <mergeCells count="34">
     <mergeCell ref="C39:U39"/>
     <mergeCell ref="C28:U28"/>
     <mergeCell ref="C29:U29"/>
@@ -2137,7 +2092,21 @@
     <mergeCell ref="C31:U31"/>
     <mergeCell ref="C32:U32"/>
     <mergeCell ref="C33:U33"/>
-    <mergeCell ref="C7:AF7"/>
+    <mergeCell ref="C34:U34"/>
+    <mergeCell ref="C35:U35"/>
+    <mergeCell ref="C36:U36"/>
+    <mergeCell ref="C37:U37"/>
+    <mergeCell ref="C38:U38"/>
+    <mergeCell ref="C40:U40"/>
+    <mergeCell ref="C41:U41"/>
+    <mergeCell ref="C42:U42"/>
+    <mergeCell ref="C43:U43"/>
+    <mergeCell ref="C44:U44"/>
+    <mergeCell ref="C27:U27"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
     <mergeCell ref="C16:U16"/>
     <mergeCell ref="C17:U17"/>
     <mergeCell ref="C18:U18"/>
@@ -2145,6 +2114,11 @@
     <mergeCell ref="C20:U20"/>
     <mergeCell ref="C21:U21"/>
     <mergeCell ref="C22:U22"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="C23:U23"/>
+    <mergeCell ref="C24:U24"/>
+    <mergeCell ref="C25:U25"/>
+    <mergeCell ref="C26:U26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
